--- a/data_samples/archived/week-3/afl-reduced_results.xlsx
+++ b/data_samples/archived/week-3/afl-reduced_results.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\2021-week-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\week-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C455EB9-86F9-44E7-9127-D716426C5A15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01750486-C58E-4B70-A2DF-FA88F6F0D824}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$A$2310</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -603,14 +606,14 @@
   <dimension ref="A1:H2310"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="4" customWidth="1"/>
     <col min="2" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="4" customWidth="1"/>
@@ -664,10 +667,10 @@
         <v>56</v>
       </c>
       <c r="G2" s="5">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H2" s="5">
-        <v>2.1800000000000002</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -690,10 +693,10 @@
         <v>93</v>
       </c>
       <c r="G3" s="5">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H3" s="5">
-        <v>2.0499999999999998</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -716,10 +719,10 @@
         <v>78</v>
       </c>
       <c r="G4" s="5">
-        <v>4.8</v>
+        <v>4.25</v>
       </c>
       <c r="H4" s="5">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -745,7 +748,7 @@
         <v>1.35</v>
       </c>
       <c r="H5" s="5">
-        <v>3.25</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -768,10 +771,10 @@
         <v>91</v>
       </c>
       <c r="G6" s="5">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H6" s="5">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -797,7 +800,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="H7" s="5">
-        <v>6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -820,10 +823,10 @@
         <v>88</v>
       </c>
       <c r="G8" s="5">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H8" s="5">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -849,7 +852,7 @@
         <v>1.5</v>
       </c>
       <c r="H9" s="5">
-        <v>2.6</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -857,19 +860,19 @@
         <v>44280</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E10">
+        <v>85</v>
+      </c>
+      <c r="F10">
         <v>106</v>
-      </c>
-      <c r="F10">
-        <v>85</v>
       </c>
       <c r="G10" s="5">
         <v>2.5</v>
@@ -898,10 +901,10 @@
         <v>58</v>
       </c>
       <c r="G11" s="5">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="H11" s="5">
-        <v>3.75</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -924,10 +927,10 @@
         <v>86</v>
       </c>
       <c r="G12" s="5">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H12" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -950,10 +953,10 @@
         <v>117</v>
       </c>
       <c r="G13" s="5">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H13" s="5">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -976,7 +979,7 @@
         <v>125</v>
       </c>
       <c r="G14" s="5">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H14" s="5">
         <v>4.3499999999999996</v>
@@ -1002,10 +1005,10 @@
         <v>92</v>
       </c>
       <c r="G15" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="H15" s="5">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1028,10 +1031,10 @@
         <v>91</v>
       </c>
       <c r="G16" s="5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H16" s="5">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1054,10 +1057,10 @@
         <v>58</v>
       </c>
       <c r="G17" s="5">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H17" s="5">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1083,7 +1086,7 @@
         <v>1.75</v>
       </c>
       <c r="H18" s="5">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1106,7 +1109,7 @@
         <v>80</v>
       </c>
       <c r="G19" s="5">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="H19" s="5">
         <v>3.14</v>
@@ -60679,6 +60682,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A2310" xr:uid="{0B146581-BE1F-4902-924A-EF90745C4B34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H492">
     <sortCondition descending="1" ref="A1:A492"/>
   </sortState>
